--- a/data/trans_orig/PCS12_SP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Edad-trans_orig.xlsx
@@ -684,16 +684,16 @@
         <v>55.15935029201145</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>55.29594756835528</v>
+        <v>55.2959475683553</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>55.29424965690211</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55.9088770720025</v>
+        <v>55.90887707200251</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>55.51849235572019</v>
+        <v>55.5184923557202</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>55.22129916040844</v>
+        <v>55.24636827522297</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>55.13747747182011</v>
+        <v>55.1408456041036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55.74617130324271</v>
+        <v>55.72910768877891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55.41880378470935</v>
+        <v>55.38280389840833</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>54.62560789857545</v>
+        <v>54.62938621515492</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>54.57348029627767</v>
+        <v>54.53337591623956</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>55.39491633454338</v>
+        <v>55.41239056192154</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>54.26206483606321</v>
+        <v>54.25621120355331</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>55.0494787611835</v>
+        <v>55.03953446763632</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55.00182081145916</v>
+        <v>54.96334322598378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55.70043843794622</v>
+        <v>55.64521216016558</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>55.03249855917792</v>
+        <v>55.03697856747701</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>55.77917799584848</v>
+        <v>55.76152005294599</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>55.84739475192968</v>
+        <v>55.83974891383916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56.31050606732943</v>
+        <v>56.33158820266175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56.19102704196451</v>
+        <v>56.16759487283397</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>55.36732214489992</v>
+        <v>55.37661838045969</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>55.46304291578192</v>
+        <v>55.41021427085261</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>56.02836318420285</v>
+        <v>56.04852678203952</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>55.77183935512256</v>
+        <v>55.76057243477089</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>55.49117472191121</v>
+        <v>55.50960043325225</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55.54359079134399</v>
+        <v>55.52123443804428</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56.11833636456974</v>
+        <v>56.09562394896236</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>55.8544483683094</v>
+        <v>55.86315995888016</v>
       </c>
     </row>
     <row r="7">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>55.35662423838536</v>
+        <v>55.35662423838537</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>55.05653213206877</v>
+        <v>55.05653213206878</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>55.5527871338461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54.10156284640579</v>
+        <v>54.10156284640578</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>54.2767752162935</v>
@@ -820,10 +820,10 @@
         <v>54.8368933683645</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>54.86033650213171</v>
+        <v>54.86033650213169</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54.96243202728321</v>
+        <v>54.96243202728322</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>55.22503711105258</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>54.98555574720393</v>
+        <v>54.99329363827895</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>54.65091559037098</v>
+        <v>54.63805555242825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55.13848877496841</v>
+        <v>55.13537150239195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>53.30221537380351</v>
+        <v>53.36170825678793</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>53.84040517079195</v>
+        <v>53.79030073130903</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>54.43813279186256</v>
+        <v>54.41073959311501</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>54.37066455997235</v>
+        <v>54.33814359380994</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>54.38526404816581</v>
+        <v>54.39051230432842</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>54.5984249090013</v>
+        <v>54.58321412258579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54.68551084850062</v>
+        <v>54.67672887600542</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54.90911401633446</v>
+        <v>54.85548990602225</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>54.07102304872648</v>
+        <v>54.04757675076019</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>55.65979319042888</v>
+        <v>55.64620462943236</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>55.36110054367221</v>
+        <v>55.39441248933362</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>55.85634739699275</v>
+        <v>55.8773930903097</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54.67537774635166</v>
+        <v>54.73316068875604</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>54.65695038426799</v>
+        <v>54.63368845226043</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>55.17942604833913</v>
+        <v>55.17931533937712</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>55.31018835361878</v>
+        <v>55.32248772953606</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>55.19489539596626</v>
+        <v>55.22490731544679</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>55.11380768447192</v>
+        <v>55.10345449531807</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55.20314858824809</v>
+        <v>55.20615785387974</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55.50009770360518</v>
+        <v>55.48795106954343</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>54.85650577337308</v>
+        <v>54.82482626145911</v>
       </c>
     </row>
     <row r="10">
@@ -947,7 +947,7 @@
         <v>53.21513197000276</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>53.15410066007482</v>
+        <v>53.15410066007481</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>54.08299995257735</v>
@@ -962,10 +962,10 @@
         <v>53.73425891519474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54.50513091677833</v>
+        <v>54.50513091677835</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>53.54161417264721</v>
+        <v>53.54161417264722</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>54.15671693916199</v>
+        <v>54.1720556728102</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>53.83158939754168</v>
+        <v>53.79250955547581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>54.52188273948575</v>
+        <v>54.50729000911033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53.51704439690009</v>
+        <v>53.46856658034967</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>52.64065439744228</v>
+        <v>52.66333071145419</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>52.60064798149162</v>
+        <v>52.57011825039471</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>53.55430001935972</v>
+        <v>53.58506928016276</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>52.57410142361135</v>
+        <v>52.56838864162272</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>53.53829946883806</v>
+        <v>53.53901938642544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53.3660269630712</v>
+        <v>53.33270914977238</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54.19083916070248</v>
+        <v>54.20506180535784</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>53.18677078128994</v>
+        <v>53.17843515981968</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>54.9377975394918</v>
+        <v>54.92060152987582</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>54.72131839287051</v>
+        <v>54.71162151735905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55.30188637754416</v>
+        <v>55.27554434989055</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54.39028603436641</v>
+        <v>54.38602323429856</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>53.67645945988733</v>
+        <v>53.6838527005235</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>53.66221547107715</v>
+        <v>53.59550089807577</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>54.51471609896183</v>
+        <v>54.48171598534061</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>53.54586666742394</v>
+        <v>53.56595853747033</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>54.18305768733994</v>
+        <v>54.15735349155308</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54.04856364663493</v>
+        <v>54.08634450391715</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54.79803884956699</v>
+        <v>54.79269364804677</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>53.86962821637069</v>
+        <v>53.87404041421369</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>53.44228214652128</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>53.31235788465864</v>
+        <v>53.31235788465865</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>52.79763722774985</v>
@@ -1080,7 +1080,7 @@
         <v>51.71625839141666</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>51.18991055634432</v>
+        <v>51.18991055634433</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>51.63186656351428</v>
@@ -1092,7 +1092,7 @@
         <v>51.22189297578244</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>52.31991098467479</v>
+        <v>52.31991098467478</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>52.47103194683672</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>52.84138905345423</v>
+        <v>52.87067779990615</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>52.64488969015696</v>
+        <v>52.66077720303086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52.09270387538778</v>
+        <v>52.00922823304599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50.95167649064126</v>
+        <v>50.96683721685444</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>50.42963317606369</v>
+        <v>50.3922482651762</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>50.88666317653845</v>
+        <v>50.81575281289452</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>51.30057899590123</v>
+        <v>51.35906683171464</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>50.74013443919502</v>
+        <v>50.68615277788354</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.88856805888821</v>
+        <v>51.83173564055947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51.97202180066657</v>
+        <v>52.01394175267396</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51.91606555403351</v>
+        <v>51.90851277189985</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>50.98088237632025</v>
+        <v>50.98963404085583</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>53.92758963047478</v>
+        <v>53.94082371187936</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>53.86382405670205</v>
+        <v>53.80904996543572</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>53.45089832949599</v>
+        <v>53.36928123825906</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52.35233115896775</v>
+        <v>52.37350849756036</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>51.82962141844648</v>
+        <v>51.86081439735728</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>52.28929088221527</v>
+        <v>52.3057081649518</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>52.78288662616816</v>
+        <v>52.8015034803818</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>51.67846772559906</v>
+        <v>51.70307561778866</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>52.73118542661436</v>
+        <v>52.76529180882252</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52.88547864309625</v>
+        <v>52.91351824484871</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52.93929978343714</v>
+        <v>52.90096397102742</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>51.87425083944004</v>
+        <v>51.87582754634892</v>
       </c>
     </row>
     <row r="16">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>50.06310022800703</v>
+        <v>50.06310022800704</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>50.6071379160609</v>
@@ -1213,10 +1213,10 @@
         <v>51.19024209511033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49.41817567958802</v>
+        <v>49.41817567958801</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>48.77932449877174</v>
+        <v>48.77932449877173</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>47.24405234847026</v>
@@ -1228,16 +1228,16 @@
         <v>48.24598163065832</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>49.40718773384924</v>
+        <v>49.40718773384923</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>48.89038044159466</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49.65883431037048</v>
+        <v>49.65883431037047</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>48.83004478466892</v>
+        <v>48.83004478466893</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>49.11342769759813</v>
+        <v>49.22676871065161</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>49.70409525433529</v>
+        <v>49.66864537446485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50.2942191227697</v>
+        <v>50.32712491070421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48.58907166814081</v>
+        <v>48.67065187106272</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>47.73360577178601</v>
+        <v>47.74681527395211</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.17838264140941</v>
+        <v>46.20617956735273</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>47.06272065153573</v>
+        <v>47.05564774539074</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>47.53441595816098</v>
+        <v>47.54597469449904</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>48.75841820958529</v>
+        <v>48.69970777022284</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48.17968465633653</v>
+        <v>48.14271351894057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48.99056818821956</v>
+        <v>48.92085452993734</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>48.28958383358649</v>
+        <v>48.30504974796867</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>50.87372056492275</v>
+        <v>50.91559007848595</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>51.53600968001746</v>
+        <v>51.47504856412507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51.98410190583444</v>
+        <v>52.03162427441129</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50.13979263238567</v>
+        <v>50.10793940917036</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>49.689411955123</v>
+        <v>49.71576236519527</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>48.21699229263252</v>
+        <v>48.21153901391907</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>49.11694311829721</v>
+        <v>49.04058697041324</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>48.86757776465841</v>
+        <v>48.84920264250711</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>50.04872846173645</v>
+        <v>50.01317166079538</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49.68484201738302</v>
+        <v>49.55413885054698</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50.312093081386</v>
+        <v>50.29788574386848</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>49.32037360504702</v>
+        <v>49.34551478393415</v>
       </c>
     </row>
     <row r="19">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>48.33536928556422</v>
+        <v>48.33536928556421</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>46.93901196406571</v>
@@ -1355,7 +1355,7 @@
         <v>43.34719822172357</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>42.85525291841242</v>
+        <v>42.85525291841241</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>44.64059342634783</v>
@@ -1370,7 +1370,7 @@
         <v>44.76113734545518</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46.50712541738685</v>
+        <v>46.50712541738686</v>
       </c>
       <c r="N19" s="5" t="n">
         <v>47.47931660391995</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>47.20449378711509</v>
+        <v>47.31702102235432</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>45.4504481250237</v>
+        <v>45.47636393570372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47.4868513853827</v>
+        <v>47.42815384271228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48.53790254940508</v>
+        <v>48.4564365444563</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>42.27987517905527</v>
+        <v>42.13771562595723</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>41.48327894581475</v>
+        <v>41.58210823078217</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>43.50467391627721</v>
+        <v>43.4929359601204</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>45.00040286336591</v>
+        <v>45.03139595215692</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>44.85673109828615</v>
+        <v>44.80689689344344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43.88048791569002</v>
+        <v>43.77486796010519</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45.60878678267168</v>
+        <v>45.61381872017139</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>46.91949237224847</v>
+        <v>46.92548354345958</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>49.30228840877552</v>
+        <v>49.3347929623212</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>48.14030987181597</v>
+        <v>48.10724235701576</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49.69619858169257</v>
+        <v>49.64230314976083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50.14678185727102</v>
+        <v>50.04032488672819</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>44.45620242593603</v>
+        <v>44.40568770470481</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>43.98955590378638</v>
+        <v>44.0709400038245</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>45.68778385117893</v>
+        <v>45.86948994874054</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>46.55497339230122</v>
+        <v>46.55073710998584</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>46.46395787844758</v>
+        <v>46.35873128343143</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>45.82189960290909</v>
+        <v>45.63593652087753</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47.28784700464435</v>
+        <v>47.26387697191232</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>48.0415346752622</v>
+        <v>47.9904883562147</v>
       </c>
     </row>
     <row r="22">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>41.91816298099616</v>
+        <v>41.91816298099614</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>39.94949617492048</v>
+        <v>39.94949617492047</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42.79197703438424</v>
+        <v>42.79197703438423</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>43.42115625052833</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>40.40519291567925</v>
+        <v>40.35786353296907</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>38.37793438464536</v>
+        <v>38.11411690860604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>41.53910635665768</v>
+        <v>41.38823504241079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>42.31582771260501</v>
+        <v>42.3154682998209</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>37.00545730418092</v>
+        <v>37.13883831792945</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>34.5688273920933</v>
+        <v>34.55421392666013</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>36.71135298831</v>
+        <v>36.6369791912425</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>35.79642608777383</v>
+        <v>35.79216419649509</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>38.82993073291585</v>
+        <v>38.74893396529906</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36.49501607984681</v>
+        <v>36.36847267091959</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38.84266136264764</v>
+        <v>38.88022493522192</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>38.61643193926091</v>
+        <v>38.63295807287112</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>43.53990823054922</v>
+        <v>43.48546341146275</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>41.58995807002532</v>
+        <v>41.56317124547736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44.28790472622215</v>
+        <v>44.13815416702363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44.45929705657436</v>
+        <v>44.51234919270956</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>39.67421096768689</v>
+        <v>39.59406653325315</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>36.90773631888885</v>
+        <v>36.88576397254148</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>39.44386699258158</v>
+        <v>39.33436062559515</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>37.54423078858423</v>
+        <v>37.48550160036121</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>40.71428875782244</v>
+        <v>40.6952301157807</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38.38828205870861</v>
+        <v>38.42546072466711</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40.87493847643695</v>
+        <v>40.9646180741456</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>40.00167794798511</v>
+        <v>40.01648659104484</v>
       </c>
     </row>
     <row r="25">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>52.81078759681099</v>
+        <v>52.81078759681098</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>52.26991123376544</v>
@@ -1621,7 +1621,7 @@
         <v>52.7035101882048</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51.52428832361523</v>
+        <v>51.52428832361524</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>50.35557475485115</v>
@@ -1633,7 +1633,7 @@
         <v>50.3823701748662</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>49.48596705167218</v>
+        <v>49.48596705167217</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>51.56424734098984</v>
@@ -1645,7 +1645,7 @@
         <v>51.51781975561694</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>50.47686400138031</v>
+        <v>50.4768640013803</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>52.52942784015313</v>
+        <v>52.55484493662536</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>51.9671819937894</v>
+        <v>51.96483035963771</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52.40563157921497</v>
+        <v>52.43823180202102</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51.23362024748869</v>
+        <v>51.22393414253593</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>50.0451761431171</v>
+        <v>50.01231017446634</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>49.3301183994337</v>
+        <v>49.38824810632136</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>50.01356520391084</v>
+        <v>49.99714066289078</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>49.22778138630045</v>
+        <v>49.19971871958791</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>51.35068727131093</v>
+        <v>51.35440106731233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50.7478761850118</v>
+        <v>50.72730553115936</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51.28475111135958</v>
+        <v>51.2972101115914</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>50.2844123864816</v>
+        <v>50.27933279397048</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>53.07062330578763</v>
+        <v>53.07332851530058</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>52.58262564937634</v>
+        <v>52.55180927903576</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>52.96794175818549</v>
+        <v>52.99926732378591</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>51.79859493024119</v>
+        <v>51.80564150841364</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>50.68482619341621</v>
+        <v>50.64657667059488</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>50.03591057790496</v>
+        <v>50.08863842002339</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>50.73984974258628</v>
+        <v>50.73148560857124</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>49.79495301498666</v>
+        <v>49.77199448946841</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>51.76058903395163</v>
+        <v>51.75199853030235</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>51.21823739185511</v>
+        <v>51.19472495495172</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>51.74509957723212</v>
+        <v>51.75675787909866</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>50.679393166037</v>
+        <v>50.68475836192489</v>
       </c>
     </row>
     <row r="28">
